--- a/NRMSD Tabelle.xlsx
+++ b/NRMSD Tabelle.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1A21B3-9777-4491-89BF-631659DB17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C183C2-7526-40AA-B6EE-8BB5C66EB4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A5CD106-F65A-4C06-8F20-91CAEE013CBF}"/>
+    <workbookView minimized="1" xWindow="35145" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{2A5CD106-F65A-4C06-8F20-91CAEE013CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Variant</t>
   </si>
@@ -47,12 +48,6 @@
     <t>Pollution</t>
   </si>
   <si>
-    <t>HWI</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
     <t>A - main results</t>
   </si>
   <si>
@@ -78,6 +73,15 @@
   </si>
   <si>
     <t>Service per capita</t>
+  </si>
+  <si>
+    <t>Human welfare</t>
+  </si>
+  <si>
+    <t>Ecological footprint</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -87,8 +91,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -116,9 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -436,7 +454,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="B2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,21 +471,21 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>0.28044358032394201</v>
@@ -501,7 +519,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>0.621375555205682</v>
@@ -518,7 +536,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>1.1105747333167599</v>
@@ -552,7 +570,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>0.75739043516539994</v>
@@ -569,7 +587,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1">
         <v>0.85846932776090701</v>
@@ -586,7 +604,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>1.9793209491127301E-2</v>
@@ -603,7 +621,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>0.30892814463194102</v>
@@ -619,6 +637,330 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31021244-64B6-4280-A83D-136F3AD125A6}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.28039999999999998</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.46E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.1106</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.0072000000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.1400999999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0589</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.75739999999999996</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.7429</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.76090000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.70269999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.61470000000000002</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.92889999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.2636</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.39489999999999997</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.4622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NRMSD Tabelle.xlsx
+++ b/NRMSD Tabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C183C2-7526-40AA-B6EE-8BB5C66EB4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9547613-65AD-498F-BB3E-FF8DED99A9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="35145" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{2A5CD106-F65A-4C06-8F20-91CAEE013CBF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A5CD106-F65A-4C06-8F20-91CAEE013CBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
-  <si>
-    <t>Variant</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Population</t>
   </si>
@@ -82,6 +79,45 @@
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector </t>
+  </si>
+  <si>
+    <t>Recalibration23</t>
+  </si>
+  <si>
+    <t>BAU</t>
+  </si>
+  <si>
+    <t>BAU 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industrial output </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food per capita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non renewable resources </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service per capita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human welfare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecological footprint </t>
   </si>
 </sst>
 </file>
@@ -91,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +142,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,6 +186,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -451,189 +503,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1647136E-4578-4BA1-9004-94C82607E4EC}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="B2:F11"/>
+      <selection activeCell="B2" sqref="B2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.28044358032394201</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.31314332169046</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.266031333250767</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.331795865713161</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.13007585419257E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.3459693226895301E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.92935013413723E-2</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.1288565496279499E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.621375555205682</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.71877448636413999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.482506607120958</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.80617373585129004</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.1105747333167599</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.00724286591046</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.1228759490692799</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.05887167375151</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.40792559879590401</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.38480586758287899</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.33315035753403999</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.67533725680332402</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.75739043516539994</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.74292043554167497</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.76373168452981499</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.70272042791139999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.85846932776090701</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.61469084382680395</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.59167354348643297</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.92892063129168501</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.9793209491127301E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.26360386587210199</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.177718082262391</v>
-      </c>
-      <c r="F10" s="1">
-        <v>8.9029824781556396E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.30892814463194102</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.39485489449935601</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.344405878266618</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.46215838983865498</v>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.27186324961570701</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.34739999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.8342092421514099E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.47404521402640598</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.5463</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.10792745866645</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.0589</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.99109999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.33712003535752899</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.38729999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.75712075128129697</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.70269999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.87290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.61877328364272699</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.0103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.17827641982438</v>
+      </c>
+      <c r="D10" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.11210000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.34246921952273301</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.4622</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.3337</v>
       </c>
     </row>
   </sheetData>
@@ -661,19 +688,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,7 +712,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>0.28039999999999998</v>
@@ -711,7 +738,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
         <v>1.1299999999999999E-2</v>
@@ -737,7 +764,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>0.62139999999999995</v>
@@ -763,7 +790,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>1.1106</v>
@@ -789,7 +816,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>0.40789999999999998</v>
@@ -814,7 +841,7 @@
     </row>
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>0.75739999999999996</v>
@@ -838,7 +865,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
         <v>0.85850000000000004</v>
@@ -862,7 +889,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
         <v>1.9800000000000002E-2</v>
@@ -886,7 +913,7 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
         <v>0.30890000000000001</v>
@@ -910,56 +937,56 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
